--- a/Documents/ScenarioTest/Tests.xlsx
+++ b/Documents/ScenarioTest/Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\var\www\html\TPI_ZaiemElias\Documents\ScenarioTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7E9D5F-2DE8-4E8D-9401-97A5B3A5E0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716BC056-0D06-484B-B58B-8F38BC3060EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Description</t>
   </si>
@@ -554,9 +554,6 @@
       </rPr>
       <t>tant que l'utilisateur n'est pas connecté</t>
     </r>
-  </si>
-  <si>
-    <t>© Elias Zaiem 2022</t>
   </si>
 </sst>
 </file>
@@ -954,17 +951,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="90.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="95.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="114.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1270,9 +1267,7 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
@@ -1304,20 +1299,6 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documents/ScenarioTest/Tests.xlsx
+++ b/Documents/ScenarioTest/Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\var\www\html\TPI_ZaiemElias\Documents\ScenarioTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716BC056-0D06-484B-B58B-8F38BC3060EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697BB77E-BE5E-48A0-9E7D-A247B04C507F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
   <si>
     <t>Description</t>
   </si>
@@ -370,6 +370,240 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>Supprimer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> une catégorie depuis la page administrateur.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Modifier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> une catégorie depuis la page administrateur.</t>
+    </r>
+  </si>
+  <si>
+    <t>navbar working</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La barre de navigation </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>affiche</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> et </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>cache</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> les élements selon si l'utilisateur est connecté ou non.</t>
+    </r>
+  </si>
+  <si>
+    <t>L'utilisateur peut se connecter</t>
+  </si>
+  <si>
+    <t>L'utilisateur peut créer un compte</t>
+  </si>
+  <si>
+    <t>L'utilisateur peut modifier ses informations de profil</t>
+  </si>
+  <si>
+    <t>Le mot de passe est bien généré sur la page de récupération</t>
+  </si>
+  <si>
+    <t>La modification du mot de passe est fonctionnelle, il peut ensuite se connecter avec le nouveau mdp</t>
+  </si>
+  <si>
+    <t>La page post est fonctionnelle, la publication d'une production fonctionne et elle s'affiche sur la page d'accueil</t>
+  </si>
+  <si>
+    <t>Une production peut etre modifiée sur la page profil &gt; mes productions, les modifications sont appliquées correctement.</t>
+  </si>
+  <si>
+    <t>Une production peut être supprimée de la base de données.</t>
+  </si>
+  <si>
+    <t>Le tri des productions fonctionne correctement.</t>
+  </si>
+  <si>
+    <t>L'ajout d'une catégorie est fonctionnel</t>
+  </si>
+  <si>
+    <t>La modification d'une catégorie est fonctionnel</t>
+  </si>
+  <si>
+    <t>La suppression d'une catégorie est fonctionnel</t>
+  </si>
+  <si>
+    <t>L'administrateur peut bien se connecté à la console de gestion des catégories</t>
+  </si>
+  <si>
+    <t>Chaque page s'affiche correctement et il n'y a pas d'erreur(s)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La barre de navigation cache le bouton </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Trier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> et </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Poster </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>tant que l'utilisateur n'est pas connecté</t>
+    </r>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>connexion</t>
+  </si>
+  <si>
+    <t>Résultat</t>
+  </si>
+  <si>
+    <t>inscription</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>L'utilisateur rentre ses coordonnées. Si un des champs est  vide, un message d'erreur s'affiche. Si le mail existe déjà, un message d'erreur s'affiche, si les mot de passe ne correspondent pas, un message d'affiche aussi.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">L'utilisateur rentre son </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> et sont </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>mot de passe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, si le mail n'existe pas, un message d'erreur s'affiche. Si le mot de passe est faux, un message d'erreur s'affiche</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>Connexion</t>
     </r>
     <r>
@@ -379,188 +613,21 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> de l'administrateur depuis la page login_admin.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Supprimer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> une catégorie depuis la page administrateur.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Modifier</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> une catégorie depuis la page administrateur.</t>
-    </r>
-  </si>
-  <si>
-    <t>navbar working</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">La barre de navigation </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>affiche</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> et </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>cache</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> les élements selon si l'utilisateur est connecté ou non.</t>
-    </r>
-  </si>
-  <si>
-    <t>L'utilisateur peut se connecter</t>
-  </si>
-  <si>
-    <t>L'utilisateur peut créer un compte</t>
-  </si>
-  <si>
-    <t>L'utilisateur peut modifier ses informations de profil</t>
-  </si>
-  <si>
-    <t>Le mot de passe est bien généré sur la page de récupération</t>
-  </si>
-  <si>
-    <t>La modification du mot de passe est fonctionnelle, il peut ensuite se connecter avec le nouveau mdp</t>
-  </si>
-  <si>
-    <t>La page post est fonctionnelle, la publication d'une production fonctionne et elle s'affiche sur la page d'accueil</t>
-  </si>
-  <si>
-    <t>Une production peut etre modifiée sur la page profil &gt; mes productions, les modifications sont appliquées correctement.</t>
-  </si>
-  <si>
-    <t>Une production peut être supprimée de la base de données.</t>
-  </si>
-  <si>
-    <t>Le tri des productions fonctionne correctement.</t>
-  </si>
-  <si>
-    <t>L'ajout d'une catégorie est fonctionnel</t>
-  </si>
-  <si>
-    <t>La modification d'une catégorie est fonctionnel</t>
-  </si>
-  <si>
-    <t>La suppression d'une catégorie est fonctionnel</t>
-  </si>
-  <si>
-    <t>L'administrateur peut bien se connecté à la console de gestion des catégories</t>
-  </si>
-  <si>
-    <t>Chaque page s'affiche correctement et il n'y a pas d'erreur(s)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">La barre de navigation cache le bouton </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Trier</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> et </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Poster </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>tant que l'utilisateur n'est pas connecté</t>
-    </r>
+      <t xml:space="preserve"> de l'administrateur depuis la page login_admin + accès réservé à la page de gestion des catégories.</t>
+    </r>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>KO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -590,6 +657,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -657,9 +738,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -671,6 +751,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -951,353 +1039,366 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="95.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="114.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="210.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="114.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="E3" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="B22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/ScenarioTest/Tests.xlsx
+++ b/Documents/ScenarioTest/Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\var\www\html\TPI_ZaiemElias\Documents\ScenarioTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697BB77E-BE5E-48A0-9E7D-A247B04C507F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400A4A7F-E32E-48AF-BCB1-D983614FE083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
   <si>
     <t>Description</t>
   </si>
@@ -618,16 +618,13 @@
   </si>
   <si>
     <t>OK</t>
-  </si>
-  <si>
-    <t>KO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -664,13 +661,6 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF00B050"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -738,7 +728,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -756,7 +746,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -1041,18 +1030,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="210.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="114.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="20" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="210.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="114.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1187,8 +1176,8 @@
       <c r="D8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>58</v>
+      <c r="E8" s="10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
@@ -1204,8 +1193,8 @@
       <c r="D9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>58</v>
+      <c r="E9" s="10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
@@ -1221,8 +1210,8 @@
       <c r="D10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>58</v>
+      <c r="E10" s="10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
@@ -1328,32 +1317,32 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
@@ -1368,7 +1357,7 @@
       <c r="D21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="13"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
@@ -1383,7 +1372,7 @@
       <c r="D22" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="13"/>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
@@ -1398,7 +1387,7 @@
       <c r="D23" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="13"/>
+      <c r="E23" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
